--- a/项目文档/测试用例/网络侦察兵测试用例-sqy&lxf&sc.xlsx
+++ b/项目文档/测试用例/网络侦察兵测试用例-sqy&lxf&sc.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\C2\项目文档\测试用例\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\刘\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD498833-FE2B-438C-9294-703095EE2C81}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0AE2673-CB52-4309-9F0C-1F68CEB5FA6A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="-100" windowWidth="21467" windowHeight="11576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="C2功能测试点总览" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="151">
   <si>
     <t>测试功能点</t>
   </si>
@@ -581,6 +581,25 @@
   </si>
   <si>
     <t>网站侦察兵25</t>
+    <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>外国网站测试</t>
+  </si>
+  <si>
+    <t>下发外国被墙网站url，观察程序反应</t>
+  </si>
+  <si>
+    <t>程序不崩溃</t>
+  </si>
+  <si>
+    <t>下发外国被墙网站www.google.com，观察程序反应</t>
+  </si>
+  <si>
+    <t>刘原</t>
+  </si>
+  <si>
+    <t>网络侦察兵26</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
 </sst>
@@ -962,13 +981,13 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.08984375" customWidth="1"/>
-    <col min="2" max="2" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="15.109375" customWidth="1"/>
+    <col min="2" max="2" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
@@ -976,7 +995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -993,25 +1012,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:I32"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A25" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+      <selection activeCell="I33" sqref="I33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="14.36328125" customWidth="1"/>
-    <col min="2" max="2" width="26.36328125" customWidth="1"/>
-    <col min="3" max="3" width="23.08984375" customWidth="1"/>
-    <col min="4" max="4" width="37.7265625" customWidth="1"/>
-    <col min="5" max="5" width="40.36328125" customWidth="1"/>
-    <col min="6" max="6" width="12.08984375" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="26.90625" customWidth="1"/>
-    <col min="8" max="9" width="12.08984375" customWidth="1"/>
+    <col min="1" max="1" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.33203125" customWidth="1"/>
+    <col min="3" max="3" width="23.109375" customWidth="1"/>
+    <col min="4" max="4" width="37.77734375" customWidth="1"/>
+    <col min="5" max="5" width="40.33203125" customWidth="1"/>
+    <col min="6" max="6" width="12.109375" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="26.88671875" customWidth="1"/>
+    <col min="8" max="9" width="12.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" ht="14.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
@@ -1040,7 +1059,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -1066,7 +1085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1092,7 +1111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>22</v>
       </c>
@@ -1118,7 +1137,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>26</v>
       </c>
@@ -1144,7 +1163,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1170,7 +1189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>33</v>
       </c>
@@ -1196,7 +1215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>35</v>
       </c>
@@ -1222,7 +1241,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>39</v>
       </c>
@@ -1248,7 +1267,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>42</v>
       </c>
@@ -1274,7 +1293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>45</v>
       </c>
@@ -1300,7 +1319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>48</v>
       </c>
@@ -1326,7 +1345,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>51</v>
       </c>
@@ -1352,7 +1371,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>55</v>
       </c>
@@ -1378,7 +1397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>59</v>
       </c>
@@ -1404,7 +1423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>63</v>
       </c>
@@ -1430,7 +1449,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>74</v>
       </c>
@@ -1456,7 +1475,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>106</v>
       </c>
@@ -1483,7 +1502,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>76</v>
       </c>
@@ -1510,7 +1529,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="6" t="s">
@@ -1530,7 +1549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>108</v>
       </c>
@@ -1557,7 +1576,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="98.35" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" ht="98.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="5" t="s">
         <v>109</v>
       </c>
@@ -1584,7 +1603,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>109</v>
       </c>
@@ -1611,7 +1630,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" ht="55.2" x14ac:dyDescent="0.25">
       <c r="A24" s="5" t="s">
         <v>109</v>
       </c>
@@ -1638,7 +1657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>109</v>
       </c>
@@ -1665,7 +1684,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A26" s="5" t="s">
         <v>110</v>
       </c>
@@ -1692,7 +1711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>111</v>
       </c>
@@ -1718,7 +1737,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="s">
         <v>134</v>
       </c>
@@ -1744,7 +1763,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A29" s="5" t="s">
         <v>135</v>
       </c>
@@ -1770,7 +1789,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" ht="27.6" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>136</v>
       </c>
@@ -1796,7 +1815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" ht="41.4" x14ac:dyDescent="0.25">
       <c r="A31" s="5" t="s">
         <v>137</v>
       </c>
@@ -1822,7 +1841,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>144</v>
       </c>
@@ -1845,6 +1864,32 @@
         <v>116</v>
       </c>
       <c r="I32" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" s="5" t="s">
+        <v>150</v>
+      </c>
+      <c r="B33" t="s">
+        <v>145</v>
+      </c>
+      <c r="C33" t="s">
+        <v>146</v>
+      </c>
+      <c r="D33" t="s">
+        <v>147</v>
+      </c>
+      <c r="E33" t="s">
+        <v>148</v>
+      </c>
+      <c r="G33" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" t="s">
+        <v>149</v>
+      </c>
+      <c r="I33" t="s">
         <v>17</v>
       </c>
     </row>
